--- a/Descargas/R15_12º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Mayo.xlsx
+++ b/Descargas/R15_12º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Mayo.xlsx
@@ -401,7 +401,7 @@
         </is>
       </c>
       <c r="B20" s="65">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21">
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="B39" s="65">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="B42" s="65">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43">
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="B78" s="65">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79">
@@ -991,7 +991,7 @@
         </is>
       </c>
       <c r="B79" s="65">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80">
